--- a/results/I3_N5_M2_T15_C100_DepCentral_s1_res_fix.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s1_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2377.445140676654</v>
+        <v>839.9596863901648</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.74821864071319</v>
+        <v>6.826797411504206</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.483672927198604</v>
+        <v>6.826797411504206</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1874.320000000003</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>486.4300000000001</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,7 +639,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -672,23 +672,12 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -890,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -962,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.040092328571152</v>
+        <v>11.30463804208573</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.609877556165682</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.7906389553977</v>
+        <v>7.55409141525918</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.27973517692068</v>
+        <v>5.064995193736195</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.78831096928433</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>13.91429431698742</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1115,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1129,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1143,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,169 +1157,15 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1444,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -1455,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -1466,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -1477,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -1488,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>109.9349999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1499,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>106.7849999999988</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1510,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>100.8199999999988</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1521,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>107.8149999999988</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1532,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>109.4349999999997</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1543,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>62.89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1554,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>61.55999999999913</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
@@ -1565,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>54.16999999999913</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -1576,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>56.28999999999913</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1587,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>60.17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1598,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>182.1100000000008</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -1609,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>179.2050000000008</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1620,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>182.6600000000008</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -1631,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>181.4850000000008</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -1642,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>180.2900000000008</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -1653,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>283.8350000000011</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -1664,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>275.3250000000011</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1675,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>280.9250000000012</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>278.4300000000011</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1697,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>283.8550000000011</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1708,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>109.9349999999997</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33">
@@ -1719,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>106.7849999999988</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34">
@@ -1730,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>100.8199999999988</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35">
@@ -1741,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>107.8149999999988</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36">
@@ -1752,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>109.4349999999997</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37">
@@ -1763,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>283.8350000000011</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -1774,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>275.3250000000011</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -1785,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>280.9250000000012</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
@@ -1796,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>278.4300000000011</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1807,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>283.8550000000011</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.934999999999711</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -1865,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.784999999998838</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -1876,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8199999999988319</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -1887,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>7.81499999999884</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -1898,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.434999999999711</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -1909,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>183.8350000000011</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1920,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>175.3250000000011</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1931,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>180.9250000000012</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1942,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>178.4300000000011</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1953,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>183.8550000000011</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2011,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2022,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2033,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2044,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2055,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2066,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2077,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2088,7 +1923,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2099,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2110,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>22.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2121,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2132,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2143,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2154,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>22.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2165,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9.390000000000001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -2176,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>10.08</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -2187,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>12.78</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2198,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>10.21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2209,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.93</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2220,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2231,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2242,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2253,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2264,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2360,7 +2195,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2371,7 +2206,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2382,7 +2217,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2393,133 +2228,12 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
